--- a/documents/ecole/planning.xlsx
+++ b/documents/ecole/planning.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Diagramme de Gantt</t>
   </si>
   <si>
-    <t>TITRE DU PROJET</t>
+    <t>INTITULE DU PROJET</t>
   </si>
   <si>
     <t>Hybridation Chalutier</t>
@@ -28,18 +28,18 @@
     <t>Florent Bergé</t>
   </si>
   <si>
+    <t>1er Sprint</t>
+  </si>
+  <si>
+    <t>2e Sprint</t>
+  </si>
+  <si>
     <t>Lots</t>
   </si>
   <si>
     <t>Membres participants</t>
   </si>
   <si>
-    <t>Date de début</t>
-  </si>
-  <si>
-    <t>Date de fin</t>
-  </si>
-  <si>
     <t>Semaine du 3/11</t>
   </si>
   <si>
@@ -82,19 +82,30 @@
     <t>Loi de commande</t>
   </si>
   <si>
+    <t>Lire PSA</t>
+  </si>
+  <si>
+    <t>Formuler le problème</t>
+  </si>
+  <si>
+    <t>Implémenter au système complet</t>
+  </si>
+  <si>
     <t>Tous</t>
   </si>
   <si>
-    <t>Lire PSA/Formuler le pb</t>
+    <t>heures</t>
+  </si>
+  <si>
+    <t>Florent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -127,18 +138,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +186,26 @@
         <bgColor rgb="FFFFBCBC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border/>
     <border>
       <left style="thin">
@@ -257,6 +286,36 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <right style="medium">
@@ -284,9 +343,41 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -295,9 +386,28 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -306,23 +416,43 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -334,7 +464,12 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -342,63 +477,14 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -407,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -417,7 +503,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -433,6 +519,9 @@
     <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -446,57 +535,70 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="20" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="6" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="26" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="9" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="9" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -713,14 +815,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="4" width="19.38"/>
-    <col customWidth="1" min="5" max="6" width="14.63"/>
-    <col customWidth="1" min="7" max="7" width="14.88"/>
-    <col customWidth="1" min="8" max="8" width="15.88"/>
-    <col customWidth="1" min="9" max="10" width="14.63"/>
-    <col customWidth="1" min="11" max="12" width="13.75"/>
-    <col customWidth="1" min="13" max="13" width="14.75"/>
-    <col customWidth="1" min="14" max="15" width="23.63"/>
+    <col customWidth="1" min="2" max="2" width="19.38"/>
+    <col customWidth="1" min="3" max="3" width="26.25"/>
+    <col customWidth="1" min="4" max="4" width="19.38"/>
+    <col customWidth="1" min="5" max="5" width="14.88"/>
+    <col customWidth="1" min="6" max="6" width="15.88"/>
+    <col customWidth="1" min="7" max="8" width="14.63"/>
+    <col customWidth="1" min="9" max="10" width="13.75"/>
+    <col customWidth="1" min="11" max="11" width="14.75"/>
+    <col customWidth="1" min="12" max="13" width="23.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -753,8 +856,6 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -766,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -787,13 +888,11 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="10"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5"/>
@@ -801,154 +900,201 @@
         <v>4</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="13"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="14"/>
+    </row>
+    <row r="5">
+      <c r="E5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6">
-      <c r="B6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="G6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="H6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="I6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="J6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="L6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="24">
-        <v>45964.0</v>
-      </c>
-      <c r="F7" s="24">
-        <v>45996.0</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24">
-        <v>45964.0</v>
-      </c>
-      <c r="F8" s="24">
-        <v>45996.0</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="O8" s="27"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="34">
-        <v>45978.0</v>
-      </c>
-      <c r="F9" s="34">
-        <v>46010.0</v>
-      </c>
-      <c r="G9" s="35"/>
+      <c r="D9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="39"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
       <c r="K9" s="35"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10">
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="D10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="52">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="52">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
